--- a/Viscosity Testing.xlsx
+++ b/Viscosity Testing.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
-    <sheet name="New Viscosity Formula" sheetId="2" r:id="rId1"/>
-    <sheet name="Old Viscosity Formula" sheetId="1" r:id="rId2"/>
+    <sheet name="Green-Kubo Zero Shear" sheetId="2" r:id="rId1"/>
+    <sheet name="LE-BC Viscosity" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>1. N_WATER</t>
   </si>
@@ -100,6 +100,21 @@
   <si>
     <t>25 rounds
 40 time each</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>V5</t>
   </si>
 </sst>
 </file>
@@ -220,7 +235,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'New Viscosity Formula'!$G$1</c:f>
+              <c:f>'LE-BC Viscosity'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -258,19 +273,97 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'New Viscosity Formula'!$H$2:$H$21</c:f>
+                <c:f>'LE-BC Viscosity'!$H$2:$H$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>6.5869999999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.0339999999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.4930000000000003</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.6849999999999996</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.2169999999999996</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.5279999999999996</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.4169999999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.1970000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>8.2970000000000006</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>8.15</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>8.0380000000000003</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>8.4990000000000006</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'New Viscosity Formula'!$H$2:$H$21</c:f>
+                <c:f>'LE-BC Viscosity'!$H$2:$H$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>6.5869999999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.0339999999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.4930000000000003</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.6849999999999996</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.2169999999999996</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.5279999999999996</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.4169999999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.1970000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>8.2970000000000006</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>8.15</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>8.0380000000000003</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>8.4990000000000006</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -290,7 +383,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'New Viscosity Formula'!$F$2:$F$21</c:f>
+              <c:f>'LE-BC Viscosity'!$F$2:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -359,17 +452,56 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'New Viscosity Formula'!$G$2:$G$21</c:f>
+              <c:f>'LE-BC Viscosity'!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.8160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.2649999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.504</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92679999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42859999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1835</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93189999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.2249999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.52290000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.40339999999999998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CD93-4908-928A-9EBEFE209141}"/>
+              <c16:uniqueId val="{00000000-226F-41A1-8E92-2601F117BB3B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -641,7 +773,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'New Viscosity Formula'!$I$1</c:f>
+              <c:f>'LE-BC Viscosity'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -679,19 +811,97 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'New Viscosity Formula'!$J$2:$J$21</c:f>
+                <c:f>'LE-BC Viscosity'!$J$2:$J$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>8.1880000000000008E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.1300000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.43E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.6429999999999996E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8.7049999999999992E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.6239999999999997E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.0350000000000004E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.5209999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8.4440000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>9.6830000000000006E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>9.6889999999999997E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>7.6369999999999997E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>7.3150000000000003E-3</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'New Viscosity Formula'!$J$2:$J$21</c:f>
+                <c:f>'LE-BC Viscosity'!$J$2:$J$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>8.1880000000000008E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.1300000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.43E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.6429999999999996E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8.7049999999999992E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.6239999999999997E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.0350000000000004E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.5209999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8.4440000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>9.6830000000000006E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>9.6889999999999997E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>7.6369999999999997E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>7.3150000000000003E-3</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -711,7 +921,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'New Viscosity Formula'!$F$2:$F$21</c:f>
+              <c:f>'LE-BC Viscosity'!$F$2:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -780,1014 +990,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'New Viscosity Formula'!$I$2:$I$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-12DF-4FE7-AD69-1ECC339C52D3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="313984504"/>
-        <c:axId val="313987784"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="313984504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="313987784"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="313987784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1.05"/>
-          <c:min val="0.95000000000000007"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="313984504"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Old Viscosity Formula'!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Viscosity</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'Old Viscosity Formula'!$H$2:$H$21</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="20"/>
-                  <c:pt idx="0">
-                    <c:v>6.5869999999999997</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>7.0339999999999998</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>7.4930000000000003</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>6.6849999999999996</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>7.2169999999999996</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>7.5279999999999996</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>8.4169999999999998</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>7.1970000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>8.2970000000000006</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>8.15</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>8.0380000000000003</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>8.4990000000000006</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'Old Viscosity Formula'!$H$2:$H$21</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="20"/>
-                  <c:pt idx="0">
-                    <c:v>6.5869999999999997</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>7.0339999999999998</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>7.4930000000000003</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>6.6849999999999996</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>7.2169999999999996</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>7.5279999999999996</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>8.4169999999999998</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>7.1970000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>8.2970000000000006</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>8.15</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>8.0380000000000003</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>8.4990000000000006</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Old Viscosity Formula'!$F$2:$F$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Old Viscosity Formula'!$G$2:$G$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1.8160000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-7.2649999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.504</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.92679999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.95499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.42859999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1835</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.93189999999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.2249999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.52290000000000003</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.40339999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-226F-41A1-8E92-2601F117BB3B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="281984392"/>
-        <c:axId val="281987672"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="281984392"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="281987672"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="281987672"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="281984392"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Old Viscosity Formula'!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Temp</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'Old Viscosity Formula'!$J$2:$J$21</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="20"/>
-                  <c:pt idx="0">
-                    <c:v>8.1880000000000008E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>8.1300000000000001E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>6.43E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>7.6429999999999996E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>8.7049999999999992E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>7.6239999999999997E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>6.0350000000000004E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>7.5209999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>8.4440000000000001E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>9.6830000000000006E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>9.6889999999999997E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>7.6369999999999997E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>7.3150000000000003E-3</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'Old Viscosity Formula'!$J$2:$J$21</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="20"/>
-                  <c:pt idx="0">
-                    <c:v>8.1880000000000008E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>8.1300000000000001E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>6.43E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>7.6429999999999996E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>8.7049999999999992E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>7.6239999999999997E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>6.0350000000000004E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>7.5209999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>8.4440000000000001E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>9.6830000000000006E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>9.6889999999999997E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>7.6369999999999997E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>7.3150000000000003E-3</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Old Viscosity Formula'!$F$2:$F$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Old Viscosity Formula'!$I$2:$I$21</c:f>
+              <c:f>'LE-BC Viscosity'!$I$2:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2102,86 +1305,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3214,1108 +2337,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4643,10 +2665,358 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>4000</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <f>4/3*PI()*2.5^3*F2/$B$5^3</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1500</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E22" si="0">4/3*PI()*2.5^3*F3/$B$5^3</f>
+        <v>6.5449846949787352E-2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1308996938995747</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.26179938779914941</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4.5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.32724923474893675</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.3926990816987242</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>196.3</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.45814892864851153</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.78539816339744839</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.98174770424681035</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1.1780972450961724</v>
+      </c>
+      <c r="F12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1.3744467859455345</v>
+      </c>
+      <c r="F13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>110</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1.5707963267948968</v>
+      </c>
+      <c r="F14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>4.45</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1.7671458676442586</v>
+      </c>
+      <c r="F15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1.9634954084936207</v>
+      </c>
+      <c r="F16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>2.028945255443408</v>
+      </c>
+      <c r="F17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>2.0943951023931953</v>
+      </c>
+      <c r="F18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>2.159844949342983</v>
+      </c>
+      <c r="F19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>2.2252947962927703</v>
+      </c>
+      <c r="F20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>2.2907446432425576</v>
+      </c>
+      <c r="F21">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>2.3561944901923448</v>
+      </c>
+      <c r="F22">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4699,357 +3069,6 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1500</v>
-      </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:E22" si="0">4/3*PI()*2.5^3*F3/$B$5^3</f>
-        <v>1.9392547244381438E-2</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0.01</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="0"/>
-        <v>3.8785094488762877E-2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="0"/>
-        <v>5.8177641733144318E-2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0.1</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>7.7570188977525753E-2</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>4.5</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>9.6962736221907195E-2</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0.11635528346628864</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>196.3</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0.13574783071067009</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0.23271056693257727</v>
-      </c>
-      <c r="F10">
-        <v>12</v>
-      </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0.29088820866572157</v>
-      </c>
-      <c r="F11">
-        <v>15</v>
-      </c>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0.3490658503988659</v>
-      </c>
-      <c r="F12">
-        <v>18</v>
-      </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>0.40724349213201022</v>
-      </c>
-      <c r="F13">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>110</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>0.46542113386515455</v>
-      </c>
-      <c r="F14">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>4.45</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>0.52359877559829893</v>
-      </c>
-      <c r="F15">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>0.58177641733144314</v>
-      </c>
-      <c r="F16">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>0.60116896457582458</v>
-      </c>
-      <c r="F17">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>0.62056151182020602</v>
-      </c>
-      <c r="F18">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>0.63995405906458758</v>
-      </c>
-      <c r="F19">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>0.65934660630896891</v>
-      </c>
-      <c r="F20">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>0.67873915355335046</v>
-      </c>
-      <c r="F21">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>0.69813170079773179</v>
-      </c>
-      <c r="F22">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="K2:K12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>5000</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2">
-        <f>4/3*PI()*2.5^3*F2/$B$5^3</f>
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
         <v>1.8160000000000001</v>
       </c>

--- a/Viscosity Testing.xlsx
+++ b/Viscosity Testing.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>1. N_WATER</t>
   </si>
@@ -116,6 +116,15 @@
   <si>
     <t>V5</t>
   </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>Stdev</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
 </sst>
 </file>
 
@@ -180,6 +189,358 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Green-Kubo Zero Shear'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V_avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Green-Kubo Zero Shear'!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5449846949787352E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1308996938995747</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1963495408493621</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26179938779914941</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32724923474893675</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3926990816987242</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45814892864851153</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.52359877559829882</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78539816339744839</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Green-Kubo Zero Shear'!$L$2:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0879939999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6228800000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.463695</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.213850000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>109.92639</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-73D8-436D-85B1-7E803C63D954}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="325988808"/>
+        <c:axId val="325989136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="325988808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="325989136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="325989136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="325988808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -717,7 +1078,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1305,6 +1666,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2337,7 +2738,558 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2665,10 +3617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2677,7 +3629,7 @@
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2706,13 +3658,19 @@
         <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2726,8 +3684,37 @@
       <c r="F2">
         <v>0</v>
       </c>
+      <c r="G2">
+        <v>1.1268</v>
+      </c>
+      <c r="H2">
+        <v>1.1365400000000001</v>
+      </c>
+      <c r="I2">
+        <v>1.1314299999999999</v>
+      </c>
+      <c r="J2">
+        <v>0.98109999999999997</v>
+      </c>
+      <c r="K2">
+        <v>1.0641</v>
+      </c>
+      <c r="L2">
+        <f>AVERAGE(G2:K2)</f>
+        <v>1.0879939999999999</v>
+      </c>
+      <c r="M2">
+        <f>_xlfn.STDEV.S(G2:K2)</f>
+        <v>6.6608100708547474E-2</v>
+      </c>
+      <c r="N2">
+        <v>42.33</v>
+      </c>
+      <c r="O2">
+        <v>0.31390000000000001</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2741,15 +3728,29 @@
       <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2">
+        <v>6.6228800000000003</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="L3">
+        <f t="shared" ref="L3:L23" si="1">AVERAGE(G3:K3)</f>
+        <v>6.6228800000000003</v>
+      </c>
+      <c r="M3" t="e">
+        <f t="shared" ref="M3:M23" si="2">_xlfn.STDEV.S(G3:K3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N3">
+        <v>47.16</v>
+      </c>
+      <c r="O3">
+        <v>0.34389999999999998</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2768,10 +3769,16 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="L4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2790,10 +3797,16 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="L5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2807,8 +3820,22 @@
       <c r="F6">
         <v>4</v>
       </c>
+      <c r="G6">
+        <v>14.8309</v>
+      </c>
+      <c r="H6">
+        <v>14.096489999999999</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>14.463695</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>0.51930629117121263</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2822,8 +3849,16 @@
       <c r="F7">
         <v>5</v>
       </c>
+      <c r="L7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2837,8 +3872,16 @@
       <c r="F8">
         <v>6</v>
       </c>
+      <c r="L8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2852,8 +3895,16 @@
       <c r="F9">
         <v>7</v>
       </c>
+      <c r="L9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2862,13 +3913,24 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.78539816339744839</v>
+        <v>0.52359877559829882</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>45.213850000000001</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>45.213850000000001</v>
+      </c>
+      <c r="M10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2876,14 +3938,25 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0.98174770424681035</v>
+        <f>4/3*PI()*2.5^3*F11/$B$5^3</f>
+        <v>0.78539816339744839</v>
       </c>
       <c r="F11">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>109.92639</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>109.92639</v>
+      </c>
+      <c r="M11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2891,14 +3964,22 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
-        <v>1.1780972450961724</v>
+        <f>4/3*PI()*2.5^3*F12/$B$5^3</f>
+        <v>0.98174770424681035</v>
       </c>
       <c r="F12">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="L12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2906,14 +3987,22 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
-        <v>1.3744467859455345</v>
+        <f>4/3*PI()*2.5^3*F13/$B$5^3</f>
+        <v>1.1780972450961724</v>
       </c>
       <c r="F13">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="L13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M13" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2921,14 +4010,22 @@
         <v>110</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
-        <v>1.5707963267948968</v>
+        <f>4/3*PI()*2.5^3*F14/$B$5^3</f>
+        <v>1.3744467859455345</v>
       </c>
       <c r="F14">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="L14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2936,78 +4033,169 @@
         <v>4.45</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f>4/3*PI()*2.5^3*F15/$B$5^3</f>
+        <v>1.5707963267948968</v>
+      </c>
+      <c r="F15">
+        <v>24</v>
+      </c>
+      <c r="G15">
+        <v>80267</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>80267</v>
+      </c>
+      <c r="M15" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N15">
+        <v>285.2</v>
+      </c>
+      <c r="O15">
+        <v>0.89129999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f>4/3*PI()*2.5^3*F16/$B$5^3</f>
         <v>1.7671458676442586</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>27</v>
       </c>
+      <c r="L16" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M16" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E16">
-        <f t="shared" si="0"/>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f>4/3*PI()*2.5^3*F17/$B$5^3</f>
         <v>1.9634954084936207</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>30</v>
       </c>
+      <c r="L17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M17" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E17">
-        <f t="shared" si="0"/>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f>4/3*PI()*2.5^3*F18/$B$5^3</f>
         <v>2.028945255443408</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>31</v>
       </c>
+      <c r="L18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M18" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E18">
-        <f t="shared" si="0"/>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f>4/3*PI()*2.5^3*F19/$B$5^3</f>
         <v>2.0943951023931953</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>32</v>
       </c>
+      <c r="L19" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E19">
-        <f t="shared" si="0"/>
+    <row r="20" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f>4/3*PI()*2.5^3*F20/$B$5^3</f>
         <v>2.159844949342983</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>33</v>
       </c>
+      <c r="L20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E20">
-        <f t="shared" si="0"/>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f>4/3*PI()*2.5^3*F21/$B$5^3</f>
         <v>2.2252947962927703</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>34</v>
       </c>
+      <c r="L21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E21">
-        <f t="shared" si="0"/>
+    <row r="22" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f>4/3*PI()*2.5^3*F22/$B$5^3</f>
         <v>2.2907446432425576</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>35</v>
       </c>
+      <c r="L22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M22" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E22">
-        <f t="shared" si="0"/>
+    <row r="23" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f>4/3*PI()*2.5^3*F23/$B$5^3</f>
         <v>2.3561944901923448</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>36</v>
+      </c>
+      <c r="L23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3016,7 +4204,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Viscosity Testing.xlsx
+++ b/Viscosity Testing.xlsx
@@ -12,9 +12,72 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
-    <sheet name="Green-Kubo Zero Shear" sheetId="2" r:id="rId1"/>
-    <sheet name="LE-BC Viscosity" sheetId="1" r:id="rId2"/>
+    <sheet name="G-K Visc. (Const Box)" sheetId="2" r:id="rId1"/>
+    <sheet name="G-K Visc. (Const P)" sheetId="3" r:id="rId2"/>
+    <sheet name="LE-BC Viscosity" sheetId="1" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'G-K Visc. (Const Box)'!$F$43</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'G-K Visc. (Const P)'!$G$36</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'G-K Visc. (Const Box)'!$F$43</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'G-K Visc. (Const Box)'!$F$43</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'G-K Visc. (Const Box)'!$F$42</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'G-K Visc. (Const P)'!$G$35</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">0.5</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="45">
   <si>
     <t>1. N_WATER</t>
   </si>
@@ -117,20 +180,59 @@
     <t>V5</t>
   </si>
   <si>
-    <t>V_avg</t>
-  </si>
-  <si>
     <t>Stdev</t>
   </si>
   <si>
-    <t>Pressure</t>
+    <t>rho</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P_avg</t>
+  </si>
+  <si>
+    <t>Visc_avg</t>
+  </si>
+  <si>
+    <t>CELL SIZE MIGHT BE TOO SMALL</t>
+  </si>
+  <si>
+    <t>N_WATER</t>
+  </si>
+  <si>
+    <t>V_norm</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>Formula Fit</t>
+  </si>
+  <si>
+    <t>err</t>
+  </si>
+  <si>
+    <t>NORM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,13 +240,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -159,12 +275,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -244,11 +363,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Green-Kubo Zero Shear'!$L$1</c:f>
+              <c:f>'G-K Visc. (Const Box)'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>V_avg</c:v>
+                  <c:v>Visc_avg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -275,12 +394,163 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'G-K Visc. (Const Box)'!$M$2:$M$23</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="22"/>
+                  <c:pt idx="0">
+                    <c:v>6.3347944718041158E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.67846255617633866</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.38708099440986921</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.57030990329819808</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.60025941101535474</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.40538431765424998</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.7746844903978398</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>7.5281557773600909</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>8.1336018166154371</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.5561768718537374</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>114.18898410860859</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>38.255785009737423</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>702.13730543904649</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'G-K Visc. (Const Box)'!$M$2:$M$23</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="22"/>
+                  <c:pt idx="0">
+                    <c:v>6.3347944718041158E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.67846255617633866</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.38708099440986921</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.57030990329819808</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.60025941101535474</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.40538431765424998</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.7746844903978398</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>7.5281557773600909</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>8.1336018166154371</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.5561768718537374</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>114.18898410860859</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>38.255785009737423</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>702.13730543904649</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'Green-Kubo Zero Shear'!$E$2:$E$11</c:f>
+              <c:f>'G-K Visc. (Const Box)'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -309,46 +579,58 @@
                   <c:v>0.52359877559829882</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.78539816339744839</c:v>
+                  <c:v>0.58904862254808621</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.65449846949787349</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.71994831644766089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Green-Kubo Zero Shear'!$L$2:$L$11</c:f>
+              <c:f>'G-K Visc. (Const Box)'!$K$2:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0879939999999999</c:v>
+                  <c:v>1.07924</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.6228800000000003</c:v>
+                  <c:v>3.6005533333333335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7.1158433333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>10.328900000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.463695</c:v>
+                  <c:v>14.1889425</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>21.35295</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>28.365654999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45.213850000000001</c:v>
+                  <c:v>47.092879999999994</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>109.92639</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66.535905</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -596,6 +878,2445 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'G-K Visc. (Const Box)'!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P_avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'G-K Visc. (Const Box)'!$T$2:$T$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>3.5118845842842555E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.0816659994664012E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0816659994664012E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.4142135623728137E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.1213203435597228E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.9497474683053502E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.8284271247461298E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4.9497474683053502E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'G-K Visc. (Const Box)'!$T$2:$T$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>3.5118845842842555E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.0816659994664012E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0816659994664012E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.4142135623728137E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.1213203435597228E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.9497474683053502E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.8284271247461298E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4.9497474683053502E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'G-K Visc. (Const Box)'!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5449846949787352E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1308996938995747</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1963495408493621</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26179938779914941</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32724923474893675</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3926990816987242</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45814892864851153</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.52359877559829882</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58904862254808621</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.65449846949787349</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.71994831644766089</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'G-K Visc. (Const Box)'!$S$2:$S$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>42.366666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.676666666666669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.176666666666669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.774999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66.924999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75.784999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C944-4313-96CB-0DE8692A24BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="382957776"/>
+        <c:axId val="382949576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="382957776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382949576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="382949576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382957776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'G-K Visc. (Const Box)'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V_norm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'G-K Visc. (Const Box)'!$D$28:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5449846949787352E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1308996938995747</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1963495408493621</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26179938779914941</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32724923474893675</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3926990816987242</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52359877559829882</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65449846949787349</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78539816339744839</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'G-K Visc. (Const Box)'!$E$28:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3361933706435396</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5933836156307528</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5705311144879737</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.147161428412586</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.785172899447758</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.282990808346611</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43.635224787813641</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.650703272673361</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93.632806419332113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4171-49E0-88D2-02FCE83F5CD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'G-K Visc. (Const Box)'!$F$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Formula Fit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'G-K Visc. (Const Box)'!$D$28:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5449846949787352E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1308996938995747</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1963495408493621</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26179938779914941</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32724923474893675</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3926990816987242</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52359877559829882</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65449846949787349</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78539816339744839</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'G-K Visc. (Const Box)'!$F$28:$F$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1363418249062553</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.312769789950718</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5460611559050583</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8626412609798069</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3060386120573275</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9520043196620556</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5635030754516626</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.513012632860613</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.423812938043127</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4171-49E0-88D2-02FCE83F5CD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="373605328"/>
+        <c:axId val="373608280"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="373605328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="373608280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="373608280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="373605328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'G-K Visc. (Const P)'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Visc_avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'G-K Visc. (Const P)'!$M$2:$M$23</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="22"/>
+                  <c:pt idx="0">
+                    <c:v>6.3347944718041158E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.26888389173272048</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.79915794196141243</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.4276011268524402</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>6.0381615812472127</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.91573156590782667</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>31.475571430177393</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>41.195761110876461</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'G-K Visc. (Const P)'!$M$2:$M$23</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="22"/>
+                  <c:pt idx="0">
+                    <c:v>6.3347944718041158E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.26888389173272048</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.79915794196141243</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.4276011268524402</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>6.0381615812472127</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.91573156590782667</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>31.475571430177393</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>41.195761110876461</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'G-K Visc. (Const P)'!$E$2:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5449846949787352E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1308996938995747</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1963495408493621</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26179938779914941</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32724923474893675</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3926990816987242</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45814892864851153</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.52359877559829882</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58904862254808621</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.65449846949787349</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.71994831644766089</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.78539816339744839</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.85084801034723567</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.91629785729702307</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.98174770424681035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'G-K Visc. (Const P)'!$L$2:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.07924</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4168266666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5239600000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.8432</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.134295000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.35182</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.187280000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>84.17737000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E404-4AAA-8761-5FE267E3D31F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="325988808"/>
+        <c:axId val="325989136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="325988808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="325989136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="325989136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="325988808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'G-K Visc. (Const P)'!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P_avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'G-K Visc. (Const P)'!$T$2:$T$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="16"/>
+                  <c:pt idx="0">
+                    <c:v>3.5118845842842555E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.1547005383790217E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.5355339059325371E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.4142135623733162E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.1213203435597228E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.2426406871194457E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.24748737341529264</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>8.8881944173152996E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'G-K Visc. (Const P)'!$T$2:$T$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="16"/>
+                  <c:pt idx="0">
+                    <c:v>3.5118845842842555E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.1547005383790217E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.5355339059325371E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.4142135623733162E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.1213203435597228E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.2426406871194457E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.24748737341529264</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>8.8881944173152996E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'G-K Visc. (Const P)'!$E$2:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5449846949787352E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1308996938995747</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1963495408493621</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26179938779914941</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32724923474893675</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3926990816987242</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45814892864851153</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.52359877559829882</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58904862254808621</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.65449846949787349</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.71994831644766089</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.78539816339744839</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.85084801034723567</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.91629785729702307</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.98174770424681035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'G-K Visc. (Const P)'!$S$2:$S$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>42.366666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.473333333333329</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.664999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.335000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42.24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.715000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42.66</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ABA9-4521-B6B8-AAAE46FB390C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="382957776"/>
+        <c:axId val="382949576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="382957776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382949576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="382949576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="43"/>
+          <c:min val="42"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382957776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'G-K Visc. (Const P)'!$G$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NORM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'G-K Visc. (Const P)'!$E$25:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5449846949787352E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1963495408493621</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32724923474893675</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45814892864851153</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58904862254808621</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71994831644766089</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85084801034723567</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'G-K Visc. (Const P)'!$G$25:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1659562902289267</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9715355249990738</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.67995997183203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.729416070568181</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.417015677699123</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.208739483340132</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.996895963826404</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C3BF-4DDE-A7A0-9DB63310E649}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'G-K Visc. (Const P)'!$H$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Formula Fit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'G-K Visc. (Const P)'!$E$25:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5449846949787352E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1963495408493621</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32724923474893675</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45814892864851153</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58904862254808621</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71994831644766089</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85084801034723567</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'G-K Visc. (Const P)'!$H$25:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.123222149183837</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4791471813150772</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0958747855634812</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2930219278512332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0713647510099822</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.003344699935223</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.769302178400466</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C3BF-4DDE-A7A0-9DB63310E649}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="506870664"/>
+        <c:axId val="506863776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="506870664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="506863776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="506863776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="506870664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>'LE-BC Viscosity'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1011,7 +3732,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1078,7 +3798,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1093,7 +3813,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1706,6 +4425,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3254,20 +6173,2600 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>117021</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>140153</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>424542</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25853</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3286,10 +8785,169 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>115659</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>111578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>401409</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>187778</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>231322</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>117021</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>140153</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>424542</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25853</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>115659</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>111578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>401409</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>187778</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>166006</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>51706</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3617,25 +9275,1103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>4000</v>
       </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <f>4/3*PI()*2.5^3*E2/$B$5^3</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1.1268</v>
+      </c>
+      <c r="G2">
+        <v>1.1035900000000001</v>
+      </c>
+      <c r="H2">
+        <v>1.0073300000000001</v>
+      </c>
+      <c r="K2">
+        <f>AVERAGE(F2:J2)</f>
+        <v>1.07924</v>
+      </c>
+      <c r="L2">
+        <f>K2/$K$2</f>
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M10" si="0">_xlfn.STDEV.S(F2:J2)</f>
+        <v>6.3347944718041158E-2</v>
+      </c>
+      <c r="N2">
+        <v>42.33</v>
+      </c>
+      <c r="O2">
+        <v>42.4</v>
+      </c>
+      <c r="P2">
+        <v>42.37</v>
+      </c>
+      <c r="S2">
+        <f>AVERAGE(N2:R2)</f>
+        <v>42.366666666666667</v>
+      </c>
+      <c r="T2">
+        <f>_xlfn.STDEV.S(N2:R2)</f>
+        <v>3.5118845842842555E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1500</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D13" si="1">4/3*PI()*2.5^3*E3/$B$5^3</f>
+        <v>6.5449846949787352E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3.99796</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2.8171599999999999</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3.9865400000000002</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3">
+        <f t="shared" ref="K3:K10" si="2">AVERAGE(F3:J3)</f>
+        <v>3.6005533333333335</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L20" si="3">K3/$K$2</f>
+        <v>3.3361933706435396</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>0.67846255617633866</v>
+      </c>
+      <c r="N3">
+        <v>44.67</v>
+      </c>
+      <c r="O3">
+        <v>44.7</v>
+      </c>
+      <c r="P3">
+        <v>44.66</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S10" si="4">AVERAGE(N3:R3)</f>
+        <v>44.676666666666669</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T10" si="5">_xlfn.STDEV.S(N3:R3)</f>
+        <v>2.0816659994664012E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1308996938995747</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>6.9108400000000003</v>
+      </c>
+      <c r="G4" s="2">
+        <v>7.5623100000000001</v>
+      </c>
+      <c r="H4" s="2">
+        <v>6.8743800000000004</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>7.1158433333333333</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="3"/>
+        <v>6.5933836156307528</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>0.38708099440986921</v>
+      </c>
+      <c r="N4">
+        <v>47.16</v>
+      </c>
+      <c r="O4">
+        <v>47.17</v>
+      </c>
+      <c r="P4">
+        <v>47.2</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="4"/>
+        <v>47.176666666666669</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="5"/>
+        <v>2.0816659994664012E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>10.73217</v>
+      </c>
+      <c r="G5" s="2">
+        <v>9.92563</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>10.328900000000001</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>9.5705311144879737</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>0.57030990329819808</v>
+      </c>
+      <c r="N5">
+        <v>49.88</v>
+      </c>
+      <c r="O5">
+        <v>49.9</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="4"/>
+        <v>49.89</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="5"/>
+        <v>1.4142135623728137E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.26179938779914941</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>14.613390000000001</v>
+      </c>
+      <c r="G6" s="2">
+        <v>13.764495</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>14.1889425</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>13.147161428412586</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0.60025941101535474</v>
+      </c>
+      <c r="N6">
+        <v>52.79</v>
+      </c>
+      <c r="O6">
+        <v>52.76</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="4"/>
+        <v>52.774999999999999</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="5"/>
+        <v>2.1213203435597228E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4.5</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.32724923474893675</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>21.639600000000002</v>
+      </c>
+      <c r="G7" s="2">
+        <v>21.066299999999998</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>21.35295</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>19.785172899447758</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0.40538431765424998</v>
+      </c>
+      <c r="N7">
+        <v>55.84</v>
+      </c>
+      <c r="O7">
+        <v>55.91</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="4"/>
+        <v>55.875</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="5"/>
+        <v>4.9497474683053502E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.3926990816987242</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>31.034759999999999</v>
+      </c>
+      <c r="G8" s="2">
+        <v>25.696549999999998</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>28.365654999999997</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>26.282990808346611</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>3.7746844903978398</v>
+      </c>
+      <c r="N8">
+        <v>59.26</v>
+      </c>
+      <c r="O8">
+        <v>59.22</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="4"/>
+        <v>59.239999999999995</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="5"/>
+        <v>2.8284271247461298E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>196.3</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.45814892864851153</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="K9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T9" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>41.769669999999998</v>
+      </c>
+      <c r="G10">
+        <v>52.416089999999997</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>47.092879999999994</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>43.635224787813641</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>7.5281557773600909</v>
+      </c>
+      <c r="N10">
+        <v>66.959999999999994</v>
+      </c>
+      <c r="O10">
+        <v>66.89</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="4"/>
+        <v>66.924999999999997</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="5"/>
+        <v>4.9497474683053502E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.58904862254808621</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="K11" t="e">
+        <f t="shared" ref="K11:K13" si="6">AVERAGE(F11:J11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L11" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M11" t="e">
+        <f t="shared" ref="M11:M13" si="7">_xlfn.STDEV.S(F11:J11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S11" t="e">
+        <f t="shared" ref="S11:S13" si="8">AVERAGE(N11:R11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T11" t="e">
+        <f t="shared" ref="T11:T13" si="9">_xlfn.STDEV.S(N11:R11)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0.65449846949787349</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>60.784579999999998</v>
+      </c>
+      <c r="G12">
+        <v>72.287229999999994</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="6"/>
+        <v>66.535905</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>61.650703272673361</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="7"/>
+        <v>8.1336018166154371</v>
+      </c>
+      <c r="N12">
+        <v>75.790000000000006</v>
+      </c>
+      <c r="O12">
+        <v>75.78</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="8"/>
+        <v>75.784999999999997</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="9"/>
+        <v>7.0710678118690922E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0.71994831644766089</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="K13" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M13" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S13" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T13" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>110</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D20" si="10">4/3*PI()*2.5^3*E14/$B$5^3</f>
+        <v>0.78539816339744839</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>102.85975999999999</v>
+      </c>
+      <c r="G14">
+        <v>99.244780000000006</v>
+      </c>
+      <c r="K14">
+        <f>AVERAGE(F14:J14)</f>
+        <v>101.05226999999999</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>93.632806419332113</v>
+      </c>
+      <c r="M14">
+        <f>_xlfn.STDEV.S(F14:J14)</f>
+        <v>2.5561768718537374</v>
+      </c>
+      <c r="N14">
+        <v>86.45</v>
+      </c>
+      <c r="O14">
+        <v>86.32</v>
+      </c>
+      <c r="S14">
+        <f>AVERAGE(N14:R14)</f>
+        <v>86.384999999999991</v>
+      </c>
+      <c r="T14">
+        <f>_xlfn.STDEV.S(N14:R14)</f>
+        <v>9.1923881554258013E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>4.45</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="10"/>
+        <v>0.85084801034723567</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>148.45309</v>
+      </c>
+      <c r="G15">
+        <v>309.94069999999999</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ref="K15" si="11">AVERAGE(F15:J15)</f>
+        <v>229.19689499999998</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>212.36879192765278</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ref="M15" si="12">_xlfn.STDEV.S(F15:J15)</f>
+        <v>114.18898410860859</v>
+      </c>
+      <c r="N15">
+        <v>92.96</v>
+      </c>
+      <c r="O15">
+        <v>93.54</v>
+      </c>
+      <c r="S15">
+        <f t="shared" ref="S15:S16" si="13">AVERAGE(N15:R15)</f>
+        <v>93.25</v>
+      </c>
+      <c r="T15">
+        <f t="shared" ref="T15:T16" si="14">_xlfn.STDEV.S(N15:R15)</f>
+        <v>0.41012193308820644</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f t="shared" si="10"/>
+        <v>0.91629785729702307</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>422.57373000000001</v>
+      </c>
+      <c r="G16">
+        <v>368.47188</v>
+      </c>
+      <c r="K16">
+        <f>AVERAGE(F16:J16)</f>
+        <v>395.52280500000001</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="3"/>
+        <v>366.48271468811384</v>
+      </c>
+      <c r="M16">
+        <f>_xlfn.STDEV.S(F16:J16)</f>
+        <v>38.255785009737423</v>
+      </c>
+      <c r="N16">
+        <v>100.6</v>
+      </c>
+      <c r="O16">
+        <v>101.4</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="13"/>
+        <v>101</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="14"/>
+        <v>0.56568542494924612</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <f>B1/B5^3</f>
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="10"/>
+        <v>0.98174770424681035</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>1200.4784199999999</v>
+      </c>
+      <c r="G17">
+        <v>207.50631999999999</v>
+      </c>
+      <c r="K17">
+        <f>AVERAGE(F17:J17)</f>
+        <v>703.99236999999994</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>652.30381564804861</v>
+      </c>
+      <c r="M17">
+        <f>_xlfn.STDEV.S(F17:J17)</f>
+        <v>702.13730543904649</v>
+      </c>
+      <c r="N17">
+        <v>110.2</v>
+      </c>
+      <c r="O17">
+        <v>107.1</v>
+      </c>
+      <c r="S17">
+        <f>AVERAGE(N17:R17)</f>
+        <v>108.65</v>
+      </c>
+      <c r="T17">
+        <f>_xlfn.STDEV.S(N17:R17)</f>
+        <v>2.1920310216783032</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f t="shared" si="10"/>
+        <v>1.1780972450961724</v>
+      </c>
+      <c r="E18">
+        <v>18</v>
+      </c>
+      <c r="K18" t="e">
+        <f>AVERAGE(F18:J18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L18" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M18" t="e">
+        <f>_xlfn.STDEV.S(F18:J18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S18" t="e">
+        <f>AVERAGE(N18:R18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T18" t="e">
+        <f>_xlfn.STDEV.S(N18:R18)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f t="shared" si="10"/>
+        <v>1.3744467859455345</v>
+      </c>
+      <c r="E19">
+        <v>21</v>
+      </c>
+      <c r="K19" t="e">
+        <f>AVERAGE(F19:J19)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19" t="e">
+        <f>_xlfn.STDEV.S(F19:J19)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S19" t="e">
+        <f>AVERAGE(N19:R19)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T19" t="e">
+        <f>_xlfn.STDEV.S(N19:R19)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f t="shared" si="10"/>
+        <v>1.5707963267948968</v>
+      </c>
+      <c r="E20">
+        <v>24</v>
+      </c>
+      <c r="F20">
+        <v>80267</v>
+      </c>
+      <c r="K20">
+        <f>AVERAGE(F20:J20)</f>
+        <v>80267</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="3"/>
+        <v>74373.633297505658</v>
+      </c>
+      <c r="M20" t="e">
+        <f>_xlfn.STDEV.S(F20:J20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N20">
+        <v>285.2</v>
+      </c>
+      <c r="S20">
+        <f>AVERAGE(N20:R20)</f>
+        <v>285.2</v>
+      </c>
+      <c r="T20" t="e">
+        <f>_xlfn.STDEV.S(N20:R20)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f>(1-D28/$F$43)^(-2)*(1-0.4*D28/$F$43+0.341*(D28/$F$43)^2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>6.5449846949787352E-2</v>
+      </c>
+      <c r="E29">
+        <v>3.3361933706435396</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29:F34" si="15">(1-D29/$F$43)^(-2)*(1-0.4*D29/$F$43+0.341*(D29/$F$43)^2)</f>
+        <v>1.1363418249062553</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>0.1308996938995747</v>
+      </c>
+      <c r="E30">
+        <v>6.5933836156307528</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="15"/>
+        <v>1.312769789950718</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="E31">
+        <v>9.5705311144879737</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="15"/>
+        <v>1.5460611559050583</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>0.26179938779914941</v>
+      </c>
+      <c r="E32">
+        <v>13.147161428412586</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="15"/>
+        <v>1.8626412609798069</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>0.32724923474893675</v>
+      </c>
+      <c r="E33">
+        <v>19.785172899447758</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="15"/>
+        <v>2.3060386120573275</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>0.3926990816987242</v>
+      </c>
+      <c r="E34">
+        <v>26.282990808346611</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="15"/>
+        <v>2.9520043196620556</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="E35">
+        <v>43.635224787813641</v>
+      </c>
+      <c r="F35">
+        <f>(1-D35/$F$43)^(-2)*(1-0.4*D35/$F$43+0.341*(D35/$F$43)^2)</f>
+        <v>5.5635030754516626</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>0.65449846949787349</v>
+      </c>
+      <c r="E36">
+        <v>61.650703272673361</v>
+      </c>
+      <c r="F36">
+        <f>(1-D36/$F$43)^(-2)*(1-0.4*D36/$F$43+0.341*(D36/$F$43)^2)</f>
+        <v>14.513012632860613</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>0.78539816339744839</v>
+      </c>
+      <c r="E37">
+        <v>93.632806419332113</v>
+      </c>
+      <c r="F37">
+        <f>(1-D37/$F$43)^(-2)*(1-0.4*D37/$F$43+0.341*(D37/$F$43)^2)</f>
+        <v>96.423812938043127</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42">
+        <f>SUMXMY2(E28:E37,F28:F37)</f>
+        <v>4753.5193990821635</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43">
+        <v>0.87025324298864781</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C22:F22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T36"/>
+  <sheetViews>
+    <sheetView topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
       <c r="E1" t="s">
         <v>20</v>
       </c>
@@ -3658,24 +10394,42 @@
         <v>28</v>
       </c>
       <c r="L1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" t="s">
         <v>29</v>
-      </c>
-      <c r="M1" t="s">
-        <v>30</v>
       </c>
       <c r="N1" t="s">
         <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="D2">
+        <v>4000</v>
       </c>
       <c r="E2">
         <f>4/3*PI()*2.5^3*F2/$B$5^3</f>
@@ -3688,69 +10442,92 @@
         <v>1.1268</v>
       </c>
       <c r="H2">
-        <v>1.1365400000000001</v>
+        <v>1.1035900000000001</v>
       </c>
       <c r="I2">
-        <v>1.1314299999999999</v>
-      </c>
-      <c r="J2">
-        <v>0.98109999999999997</v>
-      </c>
-      <c r="K2">
-        <v>1.0641</v>
+        <v>1.0073300000000001</v>
       </c>
       <c r="L2">
         <f>AVERAGE(G2:K2)</f>
-        <v>1.0879939999999999</v>
+        <v>1.07924</v>
       </c>
       <c r="M2">
         <f>_xlfn.STDEV.S(G2:K2)</f>
-        <v>6.6608100708547474E-2</v>
+        <v>6.3347944718041158E-2</v>
       </c>
       <c r="N2">
         <v>42.33</v>
       </c>
       <c r="O2">
-        <v>0.31390000000000001</v>
+        <v>42.4</v>
+      </c>
+      <c r="P2">
+        <v>42.37</v>
+      </c>
+      <c r="S2">
+        <f>AVERAGE(N2:R2)</f>
+        <v>42.366666666666667</v>
+      </c>
+      <c r="T2">
+        <f>_xlfn.STDEV.S(N2:R2)</f>
+        <v>3.5118845842842555E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1500</v>
       </c>
+      <c r="D3">
+        <v>3900</v>
+      </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E22" si="0">4/3*PI()*2.5^3*F3/$B$5^3</f>
+        <f t="shared" ref="E3:E13" si="0">4/3*PI()*2.5^3*F3/$B$5^3</f>
         <v>6.5449846949787352E-2</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
       </c>
       <c r="G3" s="2">
-        <v>6.6228800000000003</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+        <v>3.6775799999999998</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3.43241</v>
+      </c>
+      <c r="I3" s="2">
+        <v>3.1404899999999998</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3">
-        <f t="shared" ref="L3:L23" si="1">AVERAGE(G3:K3)</f>
-        <v>6.6228800000000003</v>
-      </c>
-      <c r="M3" t="e">
-        <f t="shared" ref="M3:M23" si="2">_xlfn.STDEV.S(G3:K3)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="L3:L20" si="1">AVERAGE(G3:K3)</f>
+        <v>3.4168266666666667</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M20" si="2">_xlfn.STDEV.S(G3:K3)</f>
+        <v>0.26888389173272048</v>
       </c>
       <c r="N3">
-        <v>47.16</v>
+        <v>42.48</v>
       </c>
       <c r="O3">
-        <v>0.34389999999999998</v>
+        <v>42.46</v>
+      </c>
+      <c r="P3">
+        <v>42.48</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S20" si="3">AVERAGE(N3:R3)</f>
+        <v>42.473333333333329</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T20" si="4">_xlfn.STDEV.S(N3:R3)</f>
+        <v>1.1547005383790217E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3764,7 +10541,6 @@
       <c r="F4" s="2">
         <v>2</v>
       </c>
-      <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -3777,13 +10553,24 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="S4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>10</v>
+      </c>
+      <c r="D5">
+        <v>3700</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
@@ -3792,21 +10579,39 @@
       <c r="F5" s="2">
         <v>3</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="G5" s="2">
+        <v>8.0890500000000003</v>
+      </c>
+      <c r="H5" s="2">
+        <v>6.9588700000000001</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="L5">
+        <f>AVERAGE(G5:K5)</f>
+        <v>7.5239600000000006</v>
+      </c>
+      <c r="M5">
+        <f>_xlfn.STDEV.S(G5:K5)</f>
+        <v>0.79915794196141243</v>
+      </c>
+      <c r="N5">
+        <v>42.69</v>
+      </c>
+      <c r="O5">
+        <v>42.64</v>
+      </c>
+      <c r="S5">
+        <f>AVERAGE(N5:R5)</f>
+        <v>42.664999999999999</v>
+      </c>
+      <c r="T5">
+        <f>_xlfn.STDEV.S(N5:R5)</f>
+        <v>3.5355339059325371E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3820,27 +10625,32 @@
       <c r="F6">
         <v>4</v>
       </c>
-      <c r="G6">
-        <v>14.8309</v>
-      </c>
-      <c r="H6">
-        <v>14.096489999999999</v>
-      </c>
-      <c r="L6">
+      <c r="L6" t="e">
         <f t="shared" si="1"/>
-        <v>14.463695</v>
-      </c>
-      <c r="M6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M6" t="e">
         <f t="shared" si="2"/>
-        <v>0.51930629117121263</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T6" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>4.5</v>
+      </c>
+      <c r="D7">
+        <v>3500</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
@@ -3849,16 +10659,36 @@
       <c r="F7">
         <v>5</v>
       </c>
-      <c r="L7" t="e">
+      <c r="G7">
+        <v>13.41952</v>
+      </c>
+      <c r="H7">
+        <v>18.26688</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M7" t="e">
+        <v>15.8432</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>3.4276011268524402</v>
+      </c>
+      <c r="N7">
+        <v>42.94</v>
+      </c>
+      <c r="O7">
+        <v>42.96</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="3"/>
+        <v>42.95</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="4"/>
+        <v>1.4142135623733162E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3880,13 +10710,24 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="S8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T8" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <v>196.3</v>
+      </c>
+      <c r="D9">
+        <v>3265</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
@@ -3895,16 +10736,36 @@
       <c r="F9">
         <v>7</v>
       </c>
-      <c r="L9" t="e">
+      <c r="G9">
+        <v>14.86467</v>
+      </c>
+      <c r="H9">
+        <v>23.403919999999999</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9" t="e">
+        <v>19.134295000000002</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>6.0381615812472127</v>
+      </c>
+      <c r="N9">
+        <v>42.35</v>
+      </c>
+      <c r="O9">
+        <v>42.32</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="3"/>
+        <v>42.335000000000001</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="4"/>
+        <v>2.1213203435597228E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3918,45 +10779,70 @@
       <c r="F10">
         <v>8</v>
       </c>
-      <c r="G10">
-        <v>45.213850000000001</v>
-      </c>
-      <c r="L10">
+      <c r="L10" t="e">
         <f t="shared" si="1"/>
-        <v>45.213850000000001</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M10" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="S10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
+      <c r="D11">
+        <v>3050</v>
+      </c>
       <c r="E11">
-        <f>4/3*PI()*2.5^3*F11/$B$5^3</f>
-        <v>0.78539816339744839</v>
+        <f t="shared" si="0"/>
+        <v>0.58904862254808621</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>109.92639</v>
+        <v>26.99934</v>
+      </c>
+      <c r="H11">
+        <v>25.7043</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>109.92639</v>
-      </c>
-      <c r="M11" t="e">
+        <v>26.35182</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.91573156590782667</v>
+      </c>
+      <c r="N11">
+        <v>42.21</v>
+      </c>
+      <c r="O11">
+        <v>42.27</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="3"/>
+        <v>42.24</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="4"/>
+        <v>4.2426406871194457E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3964,11 +10850,11 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <f>4/3*PI()*2.5^3*F12/$B$5^3</f>
-        <v>0.98174770424681035</v>
+        <f t="shared" si="0"/>
+        <v>0.65449846949787349</v>
       </c>
       <c r="F12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L12" t="e">
         <f t="shared" si="1"/>
@@ -3978,31 +10864,62 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="S12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <v>2.4500000000000002</v>
       </c>
+      <c r="D13">
+        <v>2850</v>
+      </c>
       <c r="E13">
-        <f>4/3*PI()*2.5^3*F13/$B$5^3</f>
-        <v>1.1780972450961724</v>
+        <f t="shared" si="0"/>
+        <v>0.71994831644766089</v>
       </c>
       <c r="F13">
-        <v>18</v>
-      </c>
-      <c r="L13" t="e">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>31.930689999999998</v>
+      </c>
+      <c r="H13">
+        <v>76.443870000000004</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M13" t="e">
+        <v>54.187280000000001</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>31.475571430177393</v>
+      </c>
+      <c r="N13">
+        <v>42.54</v>
+      </c>
+      <c r="O13">
+        <v>42.89</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="3"/>
+        <v>42.715000000000003</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="4"/>
+        <v>0.24748737341529264</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4010,11 +10927,11 @@
         <v>110</v>
       </c>
       <c r="E14">
-        <f>4/3*PI()*2.5^3*F14/$B$5^3</f>
-        <v>1.3744467859455345</v>
+        <f t="shared" ref="E14:E20" si="5">4/3*PI()*2.5^3*F14/$B$5^3</f>
+        <v>0.78539816339744839</v>
       </c>
       <c r="F14">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L14" t="e">
         <f t="shared" si="1"/>
@@ -4024,46 +10941,74 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="S14" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
         <v>4.45</v>
       </c>
+      <c r="D15">
+        <v>2625</v>
+      </c>
       <c r="E15">
-        <f>4/3*PI()*2.5^3*F15/$B$5^3</f>
-        <v>1.5707963267948968</v>
+        <f t="shared" si="5"/>
+        <v>0.85084801034723567</v>
       </c>
       <c r="F15">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G15">
-        <v>80267</v>
+        <v>128.98867000000001</v>
+      </c>
+      <c r="H15">
+        <v>47.949590000000001</v>
+      </c>
+      <c r="I15">
+        <v>75.593850000000003</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>80267</v>
-      </c>
-      <c r="M15" t="e">
+        <v>84.17737000000001</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>41.195761110876461</v>
       </c>
       <c r="N15">
-        <v>285.2</v>
+        <v>42.69</v>
       </c>
       <c r="O15">
-        <v>0.89129999999999998</v>
+        <v>42.73</v>
+      </c>
+      <c r="P15">
+        <v>42.56</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="3"/>
+        <v>42.66</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="4"/>
+        <v>8.8881944173152996E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E16">
-        <f>4/3*PI()*2.5^3*F16/$B$5^3</f>
-        <v>1.7671458676442586</v>
+        <f t="shared" si="5"/>
+        <v>0.91629785729702307</v>
       </c>
       <c r="F16">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="L16" t="e">
         <f t="shared" si="1"/>
@@ -4073,14 +11018,22 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="S16" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T16" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E17">
-        <f>4/3*PI()*2.5^3*F17/$B$5^3</f>
-        <v>1.9634954084936207</v>
+        <f t="shared" si="5"/>
+        <v>0.98174770424681035</v>
       </c>
       <c r="F17">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L17" t="e">
         <f t="shared" si="1"/>
@@ -4090,14 +11043,22 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="S17" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T17" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="18" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E18">
-        <f>4/3*PI()*2.5^3*F18/$B$5^3</f>
-        <v>2.028945255443408</v>
+        <f t="shared" si="5"/>
+        <v>1.1780972450961724</v>
       </c>
       <c r="F18">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="L18" t="e">
         <f t="shared" si="1"/>
@@ -4107,14 +11068,22 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="S18" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="19" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E19">
-        <f>4/3*PI()*2.5^3*F19/$B$5^3</f>
-        <v>2.0943951023931953</v>
+        <f t="shared" si="5"/>
+        <v>1.3744467859455345</v>
       </c>
       <c r="F19">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="L19" t="e">
         <f t="shared" si="1"/>
@@ -4124,14 +11093,22 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="S19" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T19" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="20" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E20">
-        <f>4/3*PI()*2.5^3*F20/$B$5^3</f>
-        <v>2.159844949342983</v>
+        <f t="shared" si="5"/>
+        <v>1.5707963267948968</v>
       </c>
       <c r="F20">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="L20" t="e">
         <f t="shared" si="1"/>
@@ -4141,56 +11118,172 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="S20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T20" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="21" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E21">
-        <f>4/3*PI()*2.5^3*F21/$B$5^3</f>
-        <v>2.2252947962927703</v>
-      </c>
-      <c r="F21">
-        <v>34</v>
-      </c>
-      <c r="L21" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M21" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+    <row r="24" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="22" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E22">
-        <f>4/3*PI()*2.5^3*F22/$B$5^3</f>
-        <v>2.2907446432425576</v>
-      </c>
-      <c r="F22">
-        <v>35</v>
-      </c>
-      <c r="L22" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M22" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+    <row r="25" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1.07924</v>
+      </c>
+      <c r="G25">
+        <f>F25/$F$25</f>
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f>(1-E25/$G$36)^(-2)*(1-0.4*E25/$G$36+0.341*(E25/$G$36)^2)</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="23" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E23">
-        <f>4/3*PI()*2.5^3*F23/$B$5^3</f>
-        <v>2.3561944901923448</v>
-      </c>
-      <c r="F23">
-        <v>36</v>
-      </c>
-      <c r="L23" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M23" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+    <row r="26" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>6.5449846949787352E-2</v>
+      </c>
+      <c r="F26">
+        <v>3.4168266666666667</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26:G32" si="6">F26/$F$25</f>
+        <v>3.1659562902289267</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ref="H26:H32" si="7">(1-E26/$G$36)^(-2)*(1-0.4*E26/$G$36+0.341*(E26/$G$36)^2)</f>
+        <v>1.123222149183837</v>
+      </c>
+    </row>
+    <row r="27" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="F27">
+        <v>7.5239600000000006</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="6"/>
+        <v>6.9715355249990738</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="7"/>
+        <v>1.4791471813150772</v>
+      </c>
+    </row>
+    <row r="28" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>0.32724923474893675</v>
+      </c>
+      <c r="F28">
+        <v>15.8432</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="6"/>
+        <v>14.67995997183203</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="7"/>
+        <v>2.0958747855634812</v>
+      </c>
+    </row>
+    <row r="29" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>0.45814892864851153</v>
+      </c>
+      <c r="F29">
+        <v>19.134295000000002</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="6"/>
+        <v>17.729416070568181</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="7"/>
+        <v>3.2930219278512332</v>
+      </c>
+    </row>
+    <row r="30" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>0.58904862254808621</v>
+      </c>
+      <c r="F30">
+        <v>26.35182</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="6"/>
+        <v>24.417015677699123</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="7"/>
+        <v>6.0713647510099822</v>
+      </c>
+    </row>
+    <row r="31" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>0.71994831644766089</v>
+      </c>
+      <c r="F31">
+        <v>54.187280000000001</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="6"/>
+        <v>50.208739483340132</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="7"/>
+        <v>15.003344699935223</v>
+      </c>
+    </row>
+    <row r="32" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>0.85084801034723567</v>
+      </c>
+      <c r="F32">
+        <v>84.17737000000001</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="6"/>
+        <v>77.996895963826404</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="7"/>
+        <v>80.769302178400466</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35">
+        <f>SUMXMY2(G25:G32,H25:H32)</f>
+        <v>1984.7767343058956</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36">
+        <v>0.95218633605052683</v>
       </c>
     </row>
   </sheetData>
@@ -4199,7 +11292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
@@ -4269,7 +11362,7 @@
       <c r="J2">
         <v>8.1880000000000008E-3</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4299,7 +11392,7 @@
       <c r="J3" s="2">
         <v>8.1300000000000001E-3</v>
       </c>
-      <c r="K3" s="4"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -4327,7 +11420,7 @@
       <c r="J4" s="2">
         <v>6.43E-3</v>
       </c>
-      <c r="K4" s="4"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -4355,7 +11448,7 @@
       <c r="J5" s="2">
         <v>7.6429999999999996E-3</v>
       </c>
-      <c r="K5" s="4"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4383,7 +11476,7 @@
       <c r="J6">
         <v>8.7049999999999992E-3</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -4411,7 +11504,7 @@
       <c r="J7">
         <v>7.6239999999999997E-3</v>
       </c>
-      <c r="K7" s="4"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -4439,7 +11532,7 @@
       <c r="J8">
         <v>6.0350000000000004E-3</v>
       </c>
-      <c r="K8" s="4"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -4467,7 +11560,7 @@
       <c r="J9">
         <v>7.5209999999999999E-3</v>
       </c>
-      <c r="K9" s="4"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -4495,7 +11588,7 @@
       <c r="J10">
         <v>8.4440000000000001E-3</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4525,7 +11618,7 @@
       <c r="J11">
         <v>9.6830000000000006E-3</v>
       </c>
-      <c r="K11" s="3"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4553,7 +11646,7 @@
       <c r="J12">
         <v>9.6889999999999997E-3</v>
       </c>
-      <c r="K12" s="3"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">

--- a/Viscosity Testing.xlsx
+++ b/Viscosity Testing.xlsx
@@ -1736,6 +1736,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2274,6 +2275,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2796,6 +2798,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3196,6 +3199,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3277,6 +3281,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3732,6 +3737,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3813,6 +3819,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9278,7 +9285,7 @@
   <dimension ref="A1:T43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
